--- a/branches/Organization-resource-dev-FIG52/ValueSet-vs-vl-suppression.xlsx
+++ b/branches/Organization-resource-dev-FIG52/ValueSet-vs-vl-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T13:24:20+00:00</t>
+    <t>2023-02-20T13:26:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Organization-resource-dev-FIG52/ValueSet-vs-vl-suppression.xlsx
+++ b/branches/Organization-resource-dev-FIG52/ValueSet-vs-vl-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T13:26:35+00:00</t>
+    <t>2023-02-21T13:29:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Organization-resource-dev-FIG52/ValueSet-vs-vl-suppression.xlsx
+++ b/branches/Organization-resource-dev-FIG52/ValueSet-vs-vl-suppression.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T13:29:14+00:00</t>
+    <t>2023-02-21T13:30:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
